--- a/biology/Zoologie/Euphyllia_ancora/Euphyllia_ancora.xlsx
+++ b/biology/Zoologie/Euphyllia_ancora/Euphyllia_ancora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphyllia ancora · Corail-flambeau
-Euphyllia ancora, communément nommé Corail à croissants[2],[3], est une espèce de corail dur de la famille des Euphylliidae.
-Le Corail à croissants est présent dans les eaux tropicales de la zone Indo-Ouest Pacifique soit des Maldives aux îles Salomon avec une prédominance en Indonésie[4][5],[2].
+Euphyllia ancora, communément nommé Corail à croissants est une espèce de corail dur de la famille des Euphylliidae.
+Le Corail à croissants est présent dans les eaux tropicales de la zone Indo-Ouest Pacifique soit des Maldives aux îles Salomon avec une prédominance en Indonésie,.
 Ce type de madrépore colonial est aisément reconnaissable à ses tentacules tubulaires enflés dont la terminaison est en forme de "T". Les colonies peuvent couvrir si elles sont dominantes plusieurs mètres carrés.
-Ces coraux ont la particularité de changer de sexe régulièrement. Ainsi, quatre à cinq mois après leur ponte, les femelles deviennent mâles ; et après avoir libéré leur sperme après trois mois, ils redeviennent femelles. Ce phénomène a été observé à Taïwan[6].
+Ces coraux ont la particularité de changer de sexe régulièrement. Ainsi, quatre à cinq mois après leur ponte, les femelles deviennent mâles ; et après avoir libéré leur sperme après trois mois, ils redeviennent femelles. Ce phénomène a été observé à Taïwan.
 </t>
         </is>
       </c>
